--- a/Stocks/BALKRISIND.xlsx
+++ b/Stocks/BALKRISIND.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1525.9833333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1611.0462811642237</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1597.7308817141327</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>46.250890135206141</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>47</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>60</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.78333333333333333</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1635.4504210700618</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-5.6229096900708555</v>
       </c>
       <c r="Y67">
         <v>3.3156782802297058</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1576</v>
+      </c>
+      <c r="D83">
+        <v>1580.05</v>
+      </c>
+      <c r="E83">
+        <v>1535.05</v>
+      </c>
+      <c r="F83">
+        <v>1536.2</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1550.4333333333334</v>
+      </c>
+      <c r="H83">
+        <v>1548.1409784385351</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>1567.8310701299181</v>
+      </c>
+      <c r="K83">
+        <v>1507.1282280025748</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>49.105584469594689</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1.1500000000000909</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>45</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>2.5555555555557576E-2</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1543.6758053038375</v>
+      </c>
+      <c r="W83">
+        <v>1569.5507142857416</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-25.874908981904127</v>
+      </c>
+      <c r="Y83">
+        <v>-27.438770246746863</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1531</v>
+      </c>
+      <c r="D84">
+        <v>1587.85</v>
+      </c>
+      <c r="E84">
+        <v>1513.15</v>
+      </c>
+      <c r="F84">
+        <v>1541.05</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1547.3500000000001</v>
+      </c>
+      <c r="H84">
+        <v>1547.7454892192677</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1572.2797212121584</v>
+      </c>
+      <c r="K84">
+        <v>1508.4663995575581</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>50.722941463637127</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>27.899999999999864</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>74.699999999999818</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.37349397590361355</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1543.2718352570932</v>
+      </c>
+      <c r="W84">
+        <v>1567.4395502645755</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-24.167715007482229</v>
+      </c>
+      <c r="Y84">
+        <v>-26.784559198893938</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1548</v>
+      </c>
+      <c r="D85">
+        <v>1574.7</v>
+      </c>
+      <c r="E85">
+        <v>1548</v>
+      </c>
+      <c r="F85">
+        <v>1558.9</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1560.5333333333335</v>
+      </c>
+      <c r="H85">
+        <v>1554.1394112763005</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1572.8175609427899</v>
+      </c>
+      <c r="K85">
+        <v>1517.2516441003229</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>57.008259807024864</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>10.900000000000091</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>26.700000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.40823970037453455</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1545.6761682944634</v>
+      </c>
+      <c r="W85">
+        <v>1566.8069909857181</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-21.130822691254707</v>
+      </c>
+      <c r="Y85">
+        <v>-25.65381189736609</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1571.7</v>
+      </c>
+      <c r="D86">
+        <v>1590</v>
+      </c>
+      <c r="E86">
+        <v>1554</v>
+      </c>
+      <c r="F86">
+        <v>1577</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1573.6666666666667</v>
+      </c>
+      <c r="H86">
+        <v>1563.9030389714835</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1576.6358807332811</v>
+      </c>
+      <c r="K86">
+        <v>1525.4179454113623</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>62.991475283834596</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>36</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1550.4952193260845</v>
+      </c>
+      <c r="W86">
+        <v>1567.5620286904798</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-17.06680936439534</v>
+      </c>
+      <c r="Y86">
+        <v>-23.936411390771941</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1583</v>
+      </c>
+      <c r="D87">
+        <v>1655</v>
+      </c>
+      <c r="E87">
+        <v>1580</v>
+      </c>
+      <c r="F87">
+        <v>1649.45</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1628.1499999999999</v>
+      </c>
+      <c r="H87">
+        <v>1596.0265194857416</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1594.0501294592186</v>
+      </c>
+      <c r="K87">
+        <v>1537.5472908755041</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>78.183270426083368</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>69.450000000000045</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>75</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.9260000000000006</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>1565.7190317374561</v>
+      </c>
+      <c r="W87">
+        <v>1573.6278043430368</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-7.9087726055806797</v>
+      </c>
+      <c r="Y87">
+        <v>-20.73088363373369</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>1588.5500000000002</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>1608.65</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>1617.5</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>1626.3500000000001</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1652.75</v>
+      </c>
+      <c r="D88">
+        <v>1652.75</v>
+      </c>
+      <c r="E88">
+        <v>1604.05</v>
+      </c>
+      <c r="F88">
+        <v>1614</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1623.6000000000001</v>
+      </c>
+      <c r="H88">
+        <v>1609.8132597428707</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1607.0945451349478</v>
+      </c>
+      <c r="K88">
+        <v>1552.3256706809477</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>62.493111758787343</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>9.9500000000000455</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>48.700000000000045</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.20431211498973381</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1573.1468730086167</v>
+      </c>
+      <c r="W88">
+        <v>1576.6183373546637</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-3.4714643460470143</v>
+      </c>
+      <c r="Y88">
+        <v>-17.278999776196354</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1623</v>
+      </c>
+      <c r="D89">
+        <v>1649.75</v>
+      </c>
+      <c r="E89">
+        <v>1619.6</v>
+      </c>
+      <c r="F89">
+        <v>1631.25</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1633.5333333333335</v>
+      </c>
+      <c r="H89">
+        <v>1621.673296538102</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1616.5735351049593</v>
+      </c>
+      <c r="K89">
+        <v>1567.275521640737</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>66.57338104193957</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>11.650000000000091</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>30.150000000000091</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.38640132669983601</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1582.0858156226757</v>
+      </c>
+      <c r="W89">
+        <v>1580.6651271802441</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>1.4206884424315831</v>
+      </c>
+      <c r="Y89">
+        <v>-13.539062132470766</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1625</v>
+      </c>
+      <c r="D90">
+        <v>1625</v>
+      </c>
+      <c r="E90">
+        <v>1602</v>
+      </c>
+      <c r="F90">
+        <v>1607</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1611.3333333333333</v>
+      </c>
+      <c r="H90">
+        <v>1616.5033149357178</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>1618.4460828594129</v>
+      </c>
+      <c r="K90">
+        <v>1574.9920723872399</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>55.889259837331132</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1585.9187670653409</v>
+      </c>
+      <c r="W90">
+        <v>1582.6158585002261</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>3.3029085651148762</v>
+      </c>
+      <c r="Y90">
+        <v>-10.170667992953637</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1624.5</v>
+      </c>
+      <c r="D91">
+        <v>1649.3</v>
+      </c>
+      <c r="E91">
+        <v>1615.05</v>
+      </c>
+      <c r="F91">
+        <v>1639.85</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1634.7333333333333</v>
+      </c>
+      <c r="H91">
+        <v>1625.6183241345257</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1625.3025088906545</v>
+      </c>
+      <c r="K91">
+        <v>1583.8938340789643</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>65.314967090131859</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>24.799999999999955</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>34.25</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.72408759124087463</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1594.2158798245193</v>
+      </c>
+      <c r="W91">
+        <v>1586.8554245372463</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>7.3604552872729982</v>
+      </c>
+      <c r="Y91">
+        <v>-6.6644433369083096</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1639.85</v>
+      </c>
+      <c r="D92">
+        <v>1644.85</v>
+      </c>
+      <c r="E92">
+        <v>1616.15</v>
+      </c>
+      <c r="F92">
+        <v>1625.5</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1628.8333333333333</v>
+      </c>
+      <c r="H92">
+        <v>1627.2258287339296</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1629.6463958038423</v>
+      </c>
+      <c r="K92">
+        <v>1591.0618709503055</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>58.490320828604446</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>9.3499999999999091</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>28.699999999999818</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.32578397212543442</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1599.0288213899778</v>
+      </c>
+      <c r="W92">
+        <v>1589.7179856826356</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>9.3108357073422212</v>
+      </c>
+      <c r="Y92">
+        <v>-3.4693875280582032</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1632</v>
+      </c>
+      <c r="D93">
+        <v>1695</v>
+      </c>
+      <c r="E93">
+        <v>1631.55</v>
+      </c>
+      <c r="F93">
+        <v>1679.35</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1668.6333333333332</v>
+      </c>
+      <c r="H93">
+        <v>1647.9295810336314</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1644.1694189585439</v>
+      </c>
+      <c r="K93">
+        <v>1600.0592329613487</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>72.143584652144114</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>47.799999999999955</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>63.450000000000045</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.75334909377462445</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1611.3859257915196</v>
+      </c>
+      <c r="W93">
+        <v>1596.3573941505886</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>15.028531640931078</v>
+      </c>
+      <c r="Y93">
+        <v>0.230196305739653</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1688.9</v>
+      </c>
+      <c r="D94">
+        <v>1700</v>
+      </c>
+      <c r="E94">
+        <v>1670.1</v>
+      </c>
+      <c r="F94">
+        <v>1691.9</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1687.3333333333333</v>
+      </c>
+      <c r="H94">
+        <v>1667.6314571834823</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1656.5762147455341</v>
+      </c>
+      <c r="K94">
+        <v>1615.6238478588268</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>74.579382449857405</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>21.800000000000182</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>29.900000000000091</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.72909698996655903</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1623.7727064389783</v>
+      </c>
+      <c r="W94">
+        <v>1603.434624213508</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>20.338082225470316</v>
+      </c>
+      <c r="Y94">
+        <v>4.2517734896857853</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1700</v>
+      </c>
+      <c r="D95">
+        <v>1715</v>
+      </c>
+      <c r="E95">
+        <v>1647.1</v>
+      </c>
+      <c r="F95">
+        <v>1680</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1680.7</v>
+      </c>
+      <c r="H95">
+        <v>1674.1657285917413</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1669.5592781354155</v>
+      </c>
+      <c r="K95">
+        <v>1622.618548334643</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>67.575797036214695</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>32.900000000000091</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>67.900000000000091</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.48453608247422747</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1632.42305929452</v>
+      </c>
+      <c r="W95">
+        <v>1609.106133531026</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>23.316925763494055</v>
+      </c>
+      <c r="Y95">
+        <v>8.0648039444474389</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1681</v>
+      </c>
+      <c r="D96">
+        <v>1685.4</v>
+      </c>
+      <c r="E96">
+        <v>1662.8</v>
+      </c>
+      <c r="F96">
+        <v>1673.45</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1673.8833333333332</v>
+      </c>
+      <c r="H96">
+        <v>1674.0245309625373</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1673.0794385497677</v>
+      </c>
+      <c r="K96">
+        <v>1631.5477598158334</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>63.474641369206189</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>10.650000000000091</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>22.600000000000136</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.47123893805309852</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1638.7348963261325</v>
+      </c>
+      <c r="W96">
+        <v>1613.8723458620611</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>24.862550464071319</v>
+      </c>
+      <c r="Y96">
+        <v>11.424353248372215</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1670</v>
+      </c>
+      <c r="D97">
+        <v>1695</v>
+      </c>
+      <c r="E97">
+        <v>1645.15</v>
+      </c>
+      <c r="F97">
+        <v>1669.8</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1669.9833333333333</v>
+      </c>
+      <c r="H97">
+        <v>1672.0039321479353</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1677.9506744275971</v>
+      </c>
+      <c r="K97">
+        <v>1634.5704798567592</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>60.900129656392032</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>24.649999999999864</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>49.849999999999909</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.49448345035105135</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1643.514143045189</v>
+      </c>
+      <c r="W97">
+        <v>1618.015135057464</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>25.499007987725008</v>
+      </c>
+      <c r="Y97">
+        <v>14.239284196242775</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1681.6</v>
+      </c>
+      <c r="D98">
+        <v>1754</v>
+      </c>
+      <c r="E98">
+        <v>1656</v>
+      </c>
+      <c r="F98">
+        <v>1746.65</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1718.8833333333332</v>
+      </c>
+      <c r="H98">
+        <v>1695.4436327406343</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1694.8505245547976</v>
+      </c>
+      <c r="K98">
+        <v>1639.3325954441461</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>81.088058209859611</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>90.650000000000091</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>98</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.92500000000000093</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>1659.3811979613138</v>
+      </c>
+      <c r="W98">
+        <v>1627.5436435717259</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>31.837554389587922</v>
+      </c>
+      <c r="Y98">
+        <v>17.758938234911803</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="35"/>
+        <v>1667.15</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="36"/>
+        <v>1693.45</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="37"/>
+        <v>1705</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="38"/>
+        <v>1716.5500000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1750</v>
+      </c>
+      <c r="D99">
+        <v>1764.7</v>
+      </c>
+      <c r="E99">
+        <v>1713.55</v>
+      </c>
+      <c r="F99">
+        <v>1716</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1731.4166666666667</v>
+      </c>
+      <c r="H99">
+        <v>1713.4301497036504</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1710.3726302092871</v>
+      </c>
+      <c r="K99">
+        <v>1655.8253520121136</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>64.488536246609655</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>2.4500000000000455</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>51.150000000000091</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>4.789833822091967E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1668.0917828903425</v>
+      </c>
+      <c r="W99">
+        <v>1634.0959662701166</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>33.995816620225924</v>
+      </c>
+      <c r="Y99">
+        <v>21.006313911974626</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1745</v>
+      </c>
+      <c r="D100">
+        <v>1758.9</v>
+      </c>
+      <c r="E100">
+        <v>1710.05</v>
+      </c>
+      <c r="F100">
+        <v>1716.95</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1728.6333333333332</v>
+      </c>
+      <c r="H100">
+        <v>1721.0317415184918</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1721.1564901627789</v>
+      </c>
+      <c r="K100">
+        <v>1667.8752737871994</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>64.767970397649208</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>6.9000000000000909</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>48.850000000000136</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.14124872057318469</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1675.6084316764436</v>
+      </c>
+      <c r="W100">
+        <v>1640.2333021019599</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>35.375129574483708</v>
+      </c>
+      <c r="Y100">
+        <v>23.880077044476444</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1707.85</v>
+      </c>
+      <c r="D101">
+        <v>1726</v>
+      </c>
+      <c r="E101">
+        <v>1681.55</v>
+      </c>
+      <c r="F101">
+        <v>1694.9</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1700.8166666666668</v>
+      </c>
+      <c r="H101">
+        <v>1710.9242040925792</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1722.2328256821613</v>
+      </c>
+      <c r="K101">
+        <v>1670.9141018344883</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>52.729765074990986</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>13.350000000000136</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>44.450000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.30033745781777554</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1678.5763652646831</v>
+      </c>
+      <c r="W101">
+        <v>1644.2826871314444</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>34.2936781332387</v>
+      </c>
+      <c r="Y101">
+        <v>25.962797262228896</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1705</v>
+      </c>
+      <c r="D102">
+        <v>1721.5</v>
+      </c>
+      <c r="E102">
+        <v>1661.8</v>
+      </c>
+      <c r="F102">
+        <v>1664.05</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1682.45</v>
+      </c>
+      <c r="H102">
+        <v>1696.6871020462895</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1722.06997553057</v>
+      </c>
+      <c r="K102">
+        <v>1668.8887458712686</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>39.794370404960489</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2.25</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>59.700000000000045</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>3.7688442211055245E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1676.3415398393472</v>
+      </c>
+      <c r="W102">
+        <v>1645.7469325291152</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>30.59460731023205</v>
+      </c>
+      <c r="Y102">
+        <v>26.889159271829527</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1660</v>
+      </c>
+      <c r="D103">
+        <v>1689.45</v>
+      </c>
+      <c r="E103">
+        <v>1590.2</v>
+      </c>
+      <c r="F103">
+        <v>1652</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1643.8833333333332</v>
+      </c>
+      <c r="H103">
+        <v>1670.2852176898114</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1714.8210920793322</v>
+      </c>
+      <c r="K103">
+        <v>1651.4023578998756</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>35.53783101247501</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>61.799999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>99.25</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.62267002518891645</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1672.5966875563706</v>
+      </c>
+      <c r="W103">
+        <v>1646.2101227121436</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>26.386564844226996</v>
+      </c>
+      <c r="Y103">
+        <v>26.788640386309019</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1653</v>
+      </c>
+      <c r="D104">
+        <v>1703.95</v>
+      </c>
+      <c r="E104">
+        <v>1638.45</v>
+      </c>
+      <c r="F104">
+        <v>1690.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1677.6333333333332</v>
+      </c>
+      <c r="H104">
+        <v>1673.9592755115723</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>1712.4052938394807</v>
+      </c>
+      <c r="K104">
+        <v>1648.5240561443477</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>54.832731462075593</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>52.049999999999955</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>65.5</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.79465648854961768</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1675.351043316929</v>
+      </c>
+      <c r="W104">
+        <v>1649.4908543630959</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>25.860188953833131</v>
+      </c>
+      <c r="Y104">
+        <v>26.602950099813842</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1692</v>
+      </c>
+      <c r="D105">
+        <v>1709</v>
+      </c>
+      <c r="E105">
+        <v>1655.25</v>
+      </c>
+      <c r="F105">
+        <v>1661.25</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1675.1666666666667</v>
+      </c>
+      <c r="H105">
+        <v>1674.5629710891194</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1711.6485618751517</v>
+      </c>
+      <c r="K105">
+        <v>1650.0187103344927</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>42.696038542399393</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>53.75</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.11162790697674418</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1673.1816520374014</v>
+      </c>
+      <c r="W105">
+        <v>1650.3619021880518</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>22.819749849349591</v>
+      </c>
+      <c r="Y105">
+        <v>25.846310049720991</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1668</v>
+      </c>
+      <c r="D106">
+        <v>1723.6</v>
+      </c>
+      <c r="E106">
+        <v>1650.6</v>
+      </c>
+      <c r="F106">
+        <v>1700</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1691.3999999999999</v>
+      </c>
+      <c r="H106">
+        <v>1682.9814855445597</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>1714.3044370140069</v>
+      </c>
+      <c r="K106">
+        <v>1650.1478858157166</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>58.066254967518816</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>49.400000000000091</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>73</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.6767123287671245</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1677.3075517239549</v>
+      </c>
+      <c r="W106">
+        <v>1654.0387983222702</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>23.268753401684762</v>
+      </c>
+      <c r="Y106">
+        <v>25.330798720113744</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1710</v>
+      </c>
+      <c r="D107">
+        <v>1725</v>
+      </c>
+      <c r="E107">
+        <v>1681.15</v>
+      </c>
+      <c r="F107">
+        <v>1705</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1703.7166666666665</v>
+      </c>
+      <c r="H107">
+        <v>1693.3490761056132</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>1716.6812287886721</v>
+      </c>
+      <c r="K107">
+        <v>1657.0372445233352</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>59.805152658458915</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>23.849999999999909</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>43.849999999999909</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.54389965792474249</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1681.5679283818081</v>
+      </c>
+      <c r="W107">
+        <v>1657.8137021502503</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>23.754226231557823</v>
+      </c>
+      <c r="Y107">
+        <v>25.015484222402559</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
